--- a/LCSC_BOM.xlsx
+++ b/LCSC_BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>LCSC Part Number</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Manufacturer</t>
   </si>
   <si>
+    <t>Customer NO.</t>
+  </si>
+  <si>
     <t>Package</t>
   </si>
   <si>
@@ -47,7 +50,211 @@
     <t>Order Price</t>
   </si>
   <si>
-    <t>Product Link</t>
+    <t>C1590</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 100nF 25V 0603 RoHS</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>50\50</t>
+  </si>
+  <si>
+    <t>$0.0058</t>
+  </si>
+  <si>
+    <t>$1.16</t>
+  </si>
+  <si>
+    <t>C22843</t>
+  </si>
+  <si>
+    <t>0603WAF1501T5E</t>
+  </si>
+  <si>
+    <t>Uniroyal Elec</t>
+  </si>
+  <si>
+    <t>Chip Resistor - Surface Mount 1.5KOhms ±1% 1/10W 0603 RoHS</t>
+  </si>
+  <si>
+    <t>100\100</t>
+  </si>
+  <si>
+    <t>$0.0011</t>
+  </si>
+  <si>
+    <t>$0.11</t>
+  </si>
+  <si>
+    <t>C26000</t>
+  </si>
+  <si>
+    <t>0603WAJ0512T5E</t>
+  </si>
+  <si>
+    <t>Chip Resistor - Surface Mount 5.1KOhms ±5% 1/10W 0603 RoHS</t>
+  </si>
+  <si>
+    <t>$0.0008</t>
+  </si>
+  <si>
+    <t>$0.08</t>
+  </si>
+  <si>
+    <t>C26858</t>
+  </si>
+  <si>
+    <t>DS1307ZN+T&amp;R</t>
+  </si>
+  <si>
+    <t>Maxim Integrated</t>
+  </si>
+  <si>
+    <t>SOP-8_150mil</t>
+  </si>
+  <si>
+    <t>Real-time Clocks Clock/Calendar I2C, 2-Wire Serial 200uA @ 5V SOP-8_150mil RoHS</t>
+  </si>
+  <si>
+    <t>1\1</t>
+  </si>
+  <si>
+    <t>$0.4423</t>
+  </si>
+  <si>
+    <t>$4.43</t>
+  </si>
+  <si>
+    <t>C27592</t>
+  </si>
+  <si>
+    <t>0603WAF680JT5E</t>
+  </si>
+  <si>
+    <t>Chip Resistor - Surface Mount 68Ohms ±1% 1/10W 0603 RoHS</t>
+  </si>
+  <si>
+    <t>C70376</t>
+  </si>
+  <si>
+    <t>BS-2-1</t>
+  </si>
+  <si>
+    <t>Q&amp;J</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>Battery Holders, Clips &amp; Contacts DIP RoHS</t>
+  </si>
+  <si>
+    <t>10\10</t>
+  </si>
+  <si>
+    <t>$0.0573</t>
+  </si>
+  <si>
+    <t>$0.58</t>
+  </si>
+  <si>
+    <t>C92594</t>
+  </si>
+  <si>
+    <t>K1-5203UA-01</t>
+  </si>
+  <si>
+    <t>Korean Hroparts Elec</t>
+  </si>
+  <si>
+    <t>7.5mm*7.5mm</t>
+  </si>
+  <si>
+    <t>5-way Tactile Switches 7.5mm*7.5mm RoHS</t>
+  </si>
+  <si>
+    <t>$0.3357</t>
+  </si>
+  <si>
+    <t>$3.36</t>
+  </si>
+  <si>
+    <t>C128458</t>
+  </si>
+  <si>
+    <t>EEEFK1H220P</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>SMD,6.3x5.8mm</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic Capacitors - SMD 22uF ±20% 50V SMD,6.3x5.8mm RoHS</t>
+  </si>
+  <si>
+    <t>5\5</t>
+  </si>
+  <si>
+    <t>$0.1050</t>
+  </si>
+  <si>
+    <t>$1.05</t>
+  </si>
+  <si>
+    <t>C202416</t>
+  </si>
+  <si>
+    <t>SKHMQKE010</t>
+  </si>
+  <si>
+    <t>ALPS Electric</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>Tactile Switches SPST-NO 6.50mm x 6.20mm 3.10mm 50mA @ 12VDC SMD RoHS</t>
+  </si>
+  <si>
+    <t>$0.1861</t>
+  </si>
+  <si>
+    <t>$1.87</t>
+  </si>
+  <si>
+    <t>C213419</t>
+  </si>
+  <si>
+    <t>1TD125BFNS001</t>
+  </si>
+  <si>
+    <t>KDS Daishinku</t>
+  </si>
+  <si>
+    <t>Cylindrical plug2x6</t>
+  </si>
+  <si>
+    <t>Radial Cylinder Crystals 32.768KHz ±10ppm Cylindrical plug2x6 RoHS</t>
+  </si>
+  <si>
+    <t>$0.0955</t>
+  </si>
+  <si>
+    <t>$0.96</t>
   </si>
   <si>
     <t>C220597</t>
@@ -65,49 +272,49 @@
     <t>ATMEL &amp; AVR SOIC-14_150mil RoHS</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>1\1</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Others_Microchip-Tech_ATTINY84A-SSUR_Microchip-Tech-ATTINY84A-SSUR_C220597.html</t>
-  </si>
-  <si>
-    <t>C26858</t>
-  </si>
-  <si>
-    <t>DS1307ZN+T&amp;R</t>
-  </si>
-  <si>
-    <t>Maxim Integrated</t>
-  </si>
-  <si>
-    <t>SOP-8_150mil</t>
-  </si>
-  <si>
-    <t>Real-time Clocks Clock/Calendar I2C, 2-Wire Serial 200uA @ 5V SOP-8_150mil RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Real-time-Clocks_MAXIM_DS1307ZN_DS1307ZN_C26858.html</t>
-  </si>
-  <si>
-    <t>C92594</t>
-  </si>
-  <si>
-    <t>K1-5203UA-01</t>
-  </si>
-  <si>
-    <t>Korean Hroparts Elec</t>
-  </si>
-  <si>
-    <t>7.5mm*7.5mm</t>
-  </si>
-  <si>
-    <t>5-way Tactile Switches 7.5mm*7.5mm RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/5-way-Tactile-Switches_Korean-Hroparts-Elec-K1-5203UA-01_C92594.html</t>
+    <t>$0.8130</t>
+  </si>
+  <si>
+    <t>$8.13</t>
+  </si>
+  <si>
+    <t>C269102</t>
+  </si>
+  <si>
+    <t>SMD0805B020TF</t>
+  </si>
+  <si>
+    <t>Brightking Elec (TAIWAN)</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>PTC Resettable Fuses 0805 RoHS</t>
+  </si>
+  <si>
+    <t>$0.0954</t>
+  </si>
+  <si>
+    <t>C271261</t>
+  </si>
+  <si>
+    <t>BZT52C3V6</t>
+  </si>
+  <si>
+    <t>Bourne Semicon (Shenzhen)</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
+    <t>Zener Diodes SOD-123 RoHS</t>
+  </si>
+  <si>
+    <t>$0.0140</t>
+  </si>
+  <si>
+    <t>$0.7</t>
   </si>
   <si>
     <t>C319148</t>
@@ -125,25 +332,10 @@
     <t>USB Connectors 16 Receptacle 1 SMT RoHS</t>
   </si>
   <si>
-    <t>https://lcsc.com/product-detail/USB-Connectors_XKB-Enterprise-U262-16XN-4BVC11_C319148.html</t>
-  </si>
-  <si>
-    <t>C202416</t>
-  </si>
-  <si>
-    <t>SKHMQKE010</t>
-  </si>
-  <si>
-    <t>ALPS Electric</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>Tactile Switches SPST-NO 6.50mm x 6.20mm 3.10mm 50mA @ 12VDC SMD RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Tactile-Switches_ALPS_SKHMQKE010_SKHMQKE010_C202416.html</t>
+    <t>$0.2545</t>
+  </si>
+  <si>
+    <t>$2.55</t>
   </si>
   <si>
     <t>C336566</t>
@@ -152,172 +344,13 @@
     <t>EZJZ1V500AA</t>
   </si>
   <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
     <t>Varistors 5V 0603 RoHS</t>
   </si>
   <si>
-    <t>5\5</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Others_PANASONIC-EZJZ1V500AA_C336566.html</t>
-  </si>
-  <si>
-    <t>C182054</t>
-  </si>
-  <si>
-    <t>CFS-20632768EZBB</t>
-  </si>
-  <si>
-    <t>CITIZEN</t>
-  </si>
-  <si>
-    <t>Cylindrical plug2*6</t>
-  </si>
-  <si>
-    <t>Radial Cylinder Crystals 32.768KHz ±10ppm Cylindrical plug2*6 RoHS</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Radial-Cylinder-Crystals_CITIZEN_CFS-20632768EZBB_32-768KHZ-10PPM-6PF_C182054.html</t>
-  </si>
-  <si>
-    <t>C128458</t>
-  </si>
-  <si>
-    <t>EEEFK1H220P</t>
-  </si>
-  <si>
-    <t>SMD,6.3x5.8mm</t>
-  </si>
-  <si>
-    <t>Aluminum Electrolytic Capacitors - SMD 22uF ±20% 50V SMD,6.3x5.8mm RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_PANASONIC-EEEFK1H220P_C128458.html</t>
-  </si>
-  <si>
-    <t>C269102</t>
-  </si>
-  <si>
-    <t>SMD0805B020TF</t>
-  </si>
-  <si>
-    <t>Brightking Elec (TAIWAN)</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>PTC Resettable Fuses 0805 RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Others_Brightking-Elec-TAIWAN-SMD0805B020TF_C269102.html</t>
-  </si>
-  <si>
-    <t>C1590</t>
-  </si>
-  <si>
-    <t>CL10B104KA8NNNC</t>
-  </si>
-  <si>
-    <t>Samsung Electro-Mechanics</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 100nF 25V 0603 RoHS</t>
-  </si>
-  <si>
-    <t>50\50</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10B104KA8NNNC_100nF-104-10-25V_C1590.html</t>
-  </si>
-  <si>
-    <t>C70376</t>
-  </si>
-  <si>
-    <t>BS-2-1</t>
-  </si>
-  <si>
-    <t>Q&amp;J</t>
-  </si>
-  <si>
-    <t>DIP</t>
-  </si>
-  <si>
-    <t>Battery Holders, Clips &amp; Contacts DIP RoHS</t>
-  </si>
-  <si>
-    <t>10\10</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Battery-Holders-Clips-Contacts_CR2032battery_C70376.html</t>
-  </si>
-  <si>
-    <t>C271261</t>
-  </si>
-  <si>
-    <t>BZT52C3V6</t>
-  </si>
-  <si>
-    <t>Bourne Semicon (Shenzhen)</t>
-  </si>
-  <si>
-    <t>SOD-123</t>
-  </si>
-  <si>
-    <t>Zener Diodes SOD-123 RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Zener-Diodes_Bourne-Semicon-Shenzhen-BZT52C3V6_C271261.html</t>
-  </si>
-  <si>
-    <t>C26000</t>
-  </si>
-  <si>
-    <t>0603WAJ0512T5E</t>
-  </si>
-  <si>
-    <t>Uniroyal Elec</t>
-  </si>
-  <si>
-    <t>Chip Resistor - Surface Mount 5.1KOhms ±5% 1/10W 0603 RoHS</t>
-  </si>
-  <si>
-    <t>100\100</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAJ0512T5E_C26000.html</t>
-  </si>
-  <si>
-    <t>C27592</t>
-  </si>
-  <si>
-    <t>0603WAF680JT5E</t>
-  </si>
-  <si>
-    <t>Chip Resistor - Surface Mount 68Ohms ±1% 1/10W 0603 RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF680JT5E_C27592.html</t>
-  </si>
-  <si>
-    <t>C22843</t>
-  </si>
-  <si>
-    <t>0603WAF1501T5E</t>
-  </si>
-  <si>
-    <t>Chip Resistor - Surface Mount 1.5KOhms ±1% 1/10W 0603 RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF1501T5E_C22843.html</t>
+    <t>$0.0868</t>
+  </si>
+  <si>
+    <t>$1.74</t>
   </si>
 </sst>
 </file>
@@ -681,14 +714,14 @@
     <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="94.262695" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="149.677734" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="94.262695" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -736,169 +769,159 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
-        <v>0.813</v>
-      </c>
-      <c r="J2">
-        <v>8.13</v>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
         <v>22</v>
       </c>
+      <c r="D3"/>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>0.4423</v>
-      </c>
-      <c r="J3">
-        <v>4.423</v>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>0.3357</v>
-      </c>
-      <c r="J4">
-        <v>3.357</v>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
         <v>34</v>
       </c>
+      <c r="D5"/>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>0.2545</v>
-      </c>
-      <c r="J5">
-        <v>2.545</v>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <v>0.1861</v>
-      </c>
-      <c r="J6">
-        <v>1.861</v>
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -911,344 +934,324 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
         <v>48</v>
       </c>
-      <c r="I7">
-        <v>0.0868</v>
-      </c>
-      <c r="J7">
-        <v>1.736</v>
+      <c r="J7" t="s">
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
         <v>53</v>
       </c>
+      <c r="D8"/>
       <c r="E8" t="s">
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D9"/>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9">
-        <v>0.105</v>
-      </c>
-      <c r="J9">
-        <v>1.05</v>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D10"/>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10">
-        <v>0.0954</v>
-      </c>
-      <c r="J10">
-        <v>0.954</v>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D11"/>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11">
-        <v>0.0058</v>
-      </c>
-      <c r="J11">
-        <v>1.16</v>
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D12"/>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12">
-        <v>0.0573</v>
-      </c>
-      <c r="J12">
-        <v>0.573</v>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D13"/>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13">
-        <v>0.014</v>
-      </c>
-      <c r="J13">
-        <v>0.7</v>
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D14"/>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14">
-        <v>0.0008</v>
-      </c>
-      <c r="J14">
-        <v>0.08</v>
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D15"/>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15">
-        <v>0.0011</v>
-      </c>
-      <c r="J15">
-        <v>0.11</v>
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D16"/>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16">
-        <v>0.0011</v>
-      </c>
-      <c r="J16">
-        <v>0.11</v>
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
